--- a/DTR/John.xlsx
+++ b/DTR/John.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:49:14</t>
+          <t>13:51:48</t>
         </is>
       </c>
     </row>

--- a/DTR/John.xlsx
+++ b/DTR/John.xlsx
@@ -459,6 +459,11 @@
           <t>13:51:48</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13:52:04</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DTR/John.xlsx
+++ b/DTR/John.xlsx
@@ -459,6 +459,11 @@
           <t>14:07:53</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14:08:29</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DTR/John.xlsx
+++ b/DTR/John.xlsx
@@ -459,6 +459,11 @@
           <t>14:12:43</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14:19:44</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
